--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N2">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P2">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q2">
-        <v>3.553612628132666</v>
+        <v>29.30317815065111</v>
       </c>
       <c r="R2">
-        <v>31.98251365319399</v>
+        <v>263.72860335586</v>
       </c>
       <c r="S2">
-        <v>3.905947990591569E-05</v>
+        <v>0.000464697206497839</v>
       </c>
       <c r="T2">
-        <v>3.905947990591569E-05</v>
+        <v>0.0004646972064978389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P3">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q3">
-        <v>92.13159291996134</v>
+        <v>63.48033180259778</v>
       </c>
       <c r="R3">
-        <v>829.1843362796518</v>
+        <v>571.32298622338</v>
       </c>
       <c r="S3">
-        <v>0.00101266302181288</v>
+        <v>0.001006687148559947</v>
       </c>
       <c r="T3">
-        <v>0.00101266302181288</v>
+        <v>0.001006687148559947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N4">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P4">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q4">
-        <v>36.75563469325233</v>
+        <v>48.03535849690999</v>
       </c>
       <c r="R4">
-        <v>330.8007122392709</v>
+        <v>432.3182264721899</v>
       </c>
       <c r="S4">
-        <v>0.000403999007478952</v>
+        <v>0.0007617568576308271</v>
       </c>
       <c r="T4">
-        <v>0.000403999007478952</v>
+        <v>0.0007617568576308272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N5">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P5">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q5">
-        <v>8.565869996378666</v>
+        <v>30.26547740122778</v>
       </c>
       <c r="R5">
-        <v>77.09282996740799</v>
+        <v>272.38929661105</v>
       </c>
       <c r="S5">
-        <v>9.415163159639355E-05</v>
+        <v>0.0004799575912676734</v>
       </c>
       <c r="T5">
-        <v>9.415163159639355E-05</v>
+        <v>0.0004799575912676734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N6">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P6">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q6">
-        <v>96.33591479056366</v>
+        <v>73.40277211717887</v>
       </c>
       <c r="R6">
-        <v>867.0232331150729</v>
+        <v>660.6249490546098</v>
       </c>
       <c r="S6">
-        <v>0.001058874762598224</v>
+        <v>0.00116403971530619</v>
       </c>
       <c r="T6">
-        <v>0.001058874762598224</v>
+        <v>0.00116403971530619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N7">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O7">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P7">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q7">
-        <v>28.78658156217666</v>
+        <v>30.19253980288555</v>
       </c>
       <c r="R7">
-        <v>259.07923405959</v>
+        <v>271.73285822597</v>
       </c>
       <c r="S7">
-        <v>0.0003164072795066244</v>
+        <v>0.0004788009283956791</v>
       </c>
       <c r="T7">
-        <v>0.0003164072795066244</v>
+        <v>0.0004788009283956791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N8">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P8">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q8">
-        <v>0.6059367788211111</v>
+        <v>7.251725338682222</v>
       </c>
       <c r="R8">
-        <v>5.453431009389999</v>
+        <v>65.26552804814</v>
       </c>
       <c r="S8">
-        <v>6.660145016722091E-06</v>
+        <v>0.0001149996935434918</v>
       </c>
       <c r="T8">
-        <v>6.660145016722091E-06</v>
+        <v>0.0001149996935434918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P9">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q9">
         <v>15.70962467873555</v>
@@ -1013,10 +1013,10 @@
         <v>141.38662210862</v>
       </c>
       <c r="S9">
-        <v>0.000172672104047251</v>
+        <v>0.0002491271993026365</v>
       </c>
       <c r="T9">
-        <v>0.000172672104047251</v>
+        <v>0.0002491271993026365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N10">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P10">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q10">
-        <v>6.267309698653888</v>
+        <v>11.88742137709</v>
       </c>
       <c r="R10">
-        <v>56.40578728788499</v>
+        <v>106.98679239381</v>
       </c>
       <c r="S10">
-        <v>6.888704055719129E-05</v>
+        <v>0.0001885137331519677</v>
       </c>
       <c r="T10">
-        <v>6.888704055719129E-05</v>
+        <v>0.0001885137331519678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N11">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P11">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q11">
-        <v>1.460591295831111</v>
+        <v>7.489867762105556</v>
       </c>
       <c r="R11">
-        <v>13.14532166248</v>
+        <v>67.40880985894999</v>
       </c>
       <c r="S11">
-        <v>1.605406732254015E-05</v>
+        <v>0.0001187762162928165</v>
       </c>
       <c r="T11">
-        <v>1.605406732254015E-05</v>
+        <v>0.0001187762162928165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N12">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P12">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q12">
-        <v>16.42651577463944</v>
+        <v>18.16515395548777</v>
       </c>
       <c r="R12">
-        <v>147.838641971755</v>
+        <v>163.48638559939</v>
       </c>
       <c r="S12">
-        <v>0.000180551801776123</v>
+        <v>0.000288067603292743</v>
       </c>
       <c r="T12">
-        <v>0.000180551801776123</v>
+        <v>0.000288067603292743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N13">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O13">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P13">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q13">
-        <v>4.908483374627777</v>
+        <v>7.47181772578111</v>
       </c>
       <c r="R13">
-        <v>44.17635037164999</v>
+        <v>67.24635953203</v>
       </c>
       <c r="S13">
-        <v>5.395152139599988E-05</v>
+        <v>0.0001184899742540168</v>
       </c>
       <c r="T13">
-        <v>5.395152139599989E-05</v>
+        <v>0.0001184899742540168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N14">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P14">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q14">
-        <v>470.3529929443944</v>
+        <v>1360.323464492526</v>
       </c>
       <c r="R14">
-        <v>4233.176936499549</v>
+        <v>12242.91118043273</v>
       </c>
       <c r="S14">
-        <v>0.005169877867710292</v>
+        <v>0.02157235336840393</v>
       </c>
       <c r="T14">
-        <v>0.005169877867710292</v>
+        <v>0.02157235336840393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P15">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q15">
-        <v>12194.45533583932</v>
+        <v>2946.908503947587</v>
       </c>
       <c r="R15">
-        <v>109750.0980225539</v>
+        <v>26522.17653552828</v>
       </c>
       <c r="S15">
-        <v>0.1340351729344486</v>
+        <v>0.04673281998794869</v>
       </c>
       <c r="T15">
-        <v>0.1340351729344486</v>
+        <v>0.0467328199879487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N16">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P16">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q16">
-        <v>4864.942973434479</v>
+        <v>2229.915982243215</v>
       </c>
       <c r="R16">
-        <v>43784.48676091032</v>
+        <v>20069.24384018894</v>
       </c>
       <c r="S16">
-        <v>0.05347294772929194</v>
+        <v>0.03536257133427289</v>
       </c>
       <c r="T16">
-        <v>0.05347294772929194</v>
+        <v>0.0353625713342729</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N17">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P17">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q17">
-        <v>1133.770900652844</v>
+        <v>1404.995692320276</v>
       </c>
       <c r="R17">
-        <v>10203.9381058756</v>
+        <v>12644.96123088248</v>
       </c>
       <c r="S17">
-        <v>0.0124618258505098</v>
+        <v>0.02228077684973642</v>
       </c>
       <c r="T17">
-        <v>0.0124618258505098</v>
+        <v>0.02228077684973642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N18">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P18">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q18">
-        <v>12750.93562282505</v>
+        <v>3407.531864170081</v>
       </c>
       <c r="R18">
-        <v>114758.4206054255</v>
+        <v>30667.78677753073</v>
       </c>
       <c r="S18">
-        <v>0.1401517176628984</v>
+        <v>0.05403750167273326</v>
       </c>
       <c r="T18">
-        <v>0.1401517176628984</v>
+        <v>0.05403750167273327</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N19">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O19">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P19">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q19">
-        <v>3810.16621992436</v>
+        <v>1401.609754932919</v>
       </c>
       <c r="R19">
-        <v>34291.49597931924</v>
+        <v>12614.48779439627</v>
       </c>
       <c r="S19">
-        <v>0.0418793848623667</v>
+        <v>0.02222708179873574</v>
       </c>
       <c r="T19">
-        <v>0.0418793848623667</v>
+        <v>0.02222708179873574</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N20">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P20">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q20">
-        <v>5.056156821658222</v>
+        <v>6.809240853659556</v>
       </c>
       <c r="R20">
-        <v>45.505411394924</v>
+        <v>61.283167682936</v>
       </c>
       <c r="S20">
-        <v>5.557467187426513E-05</v>
+        <v>0.0001079826627268499</v>
       </c>
       <c r="T20">
-        <v>5.557467187426513E-05</v>
+        <v>0.0001079826627268499</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P21">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q21">
-        <v>131.0868208719991</v>
+        <v>14.75105759832089</v>
       </c>
       <c r="R21">
-        <v>1179.781387847992</v>
+        <v>132.759518384888</v>
       </c>
       <c r="S21">
-        <v>0.001440838825606815</v>
+        <v>0.0002339260002306653</v>
       </c>
       <c r="T21">
-        <v>0.001440838825606815</v>
+        <v>0.0002339260002306653</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N22">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P22">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q22">
-        <v>52.29671113205178</v>
+        <v>11.162076816916</v>
       </c>
       <c r="R22">
-        <v>470.670400188466</v>
+        <v>100.458691352244</v>
       </c>
       <c r="S22">
-        <v>0.0005748185160747901</v>
+        <v>0.000177011035760976</v>
       </c>
       <c r="T22">
-        <v>0.0005748185160747901</v>
+        <v>0.000177011035760976</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N23">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P23">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q23">
-        <v>12.18770489297422</v>
+        <v>7.03285234510889</v>
       </c>
       <c r="R23">
-        <v>109.689344036768</v>
+        <v>63.29567110598001</v>
       </c>
       <c r="S23">
-        <v>0.0001339609755429384</v>
+        <v>0.0001115287502837387</v>
       </c>
       <c r="T23">
-        <v>0.0001339609755429384</v>
+        <v>0.0001115287502837387</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N24">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P24">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q24">
-        <v>137.0688208621509</v>
+        <v>17.05675582704844</v>
       </c>
       <c r="R24">
-        <v>1233.619387759358</v>
+        <v>153.510802443436</v>
       </c>
       <c r="S24">
-        <v>0.00150658988878201</v>
+        <v>0.0002704903455862527</v>
       </c>
       <c r="T24">
-        <v>0.00150658988878201</v>
+        <v>0.0002704903455862527</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N25">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O25">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P25">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q25">
-        <v>40.95817016901555</v>
+        <v>7.015903682685778</v>
       </c>
       <c r="R25">
-        <v>368.62353152114</v>
+        <v>63.143133144172</v>
       </c>
       <c r="S25">
-        <v>0.0004501911131322143</v>
+        <v>0.0001112599741106764</v>
       </c>
       <c r="T25">
-        <v>0.0004501911131322144</v>
+        <v>0.0001112599741106764</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N26">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P26">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q26">
-        <v>51.25051157001822</v>
+        <v>572.0309526397551</v>
       </c>
       <c r="R26">
-        <v>461.254604130164</v>
+        <v>5148.278573757796</v>
       </c>
       <c r="S26">
-        <v>0.0005633192292793408</v>
+        <v>0.009071411447433233</v>
       </c>
       <c r="T26">
-        <v>0.0005633192292793409</v>
+        <v>0.009071411447433231</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.531156</v>
       </c>
       <c r="O27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P27">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q27">
-        <v>1328.729876612879</v>
+        <v>1239.20738181503</v>
       </c>
       <c r="R27">
-        <v>11958.56888951591</v>
+        <v>11152.86643633527</v>
       </c>
       <c r="S27">
-        <v>0.01460471451082795</v>
+        <v>0.01965166391305408</v>
       </c>
       <c r="T27">
-        <v>0.01460471451082795</v>
+        <v>0.01965166391305408</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N28">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P28">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q28">
-        <v>530.0929724857917</v>
+        <v>937.7041541403258</v>
       </c>
       <c r="R28">
-        <v>4770.836752372125</v>
+        <v>8439.337387262933</v>
       </c>
       <c r="S28">
-        <v>0.005826508956874104</v>
+        <v>0.01487034951329148</v>
       </c>
       <c r="T28">
-        <v>0.005826508956874104</v>
+        <v>0.01487034951329149</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N29">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P29">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q29">
-        <v>123.5377249284942</v>
+        <v>590.8161149249478</v>
       </c>
       <c r="R29">
-        <v>1111.839524356448</v>
+        <v>5317.34503432453</v>
       </c>
       <c r="S29">
-        <v>0.001357863050763258</v>
+        <v>0.009369311299546837</v>
       </c>
       <c r="T29">
-        <v>0.001357863050763258</v>
+        <v>0.009369311299546837</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N30">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P30">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q30">
-        <v>1389.364973687771</v>
+        <v>1432.904562253283</v>
       </c>
       <c r="R30">
-        <v>12504.28476318994</v>
+        <v>12896.14106027954</v>
       </c>
       <c r="S30">
-        <v>0.01527118427093641</v>
+        <v>0.02272336276405957</v>
       </c>
       <c r="T30">
-        <v>0.01527118427093641</v>
+        <v>0.02272336276405957</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N31">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O31">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P31">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q31">
-        <v>415.1625924936155</v>
+        <v>589.3922910772935</v>
       </c>
       <c r="R31">
-        <v>3736.463332442539</v>
+        <v>5304.530619695642</v>
       </c>
       <c r="S31">
-        <v>0.004563253408887551</v>
+        <v>0.009346731941050351</v>
       </c>
       <c r="T31">
-        <v>0.004563253408887553</v>
+        <v>0.009346731941050351</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1868273333333333</v>
+        <v>2.235910666666667</v>
       </c>
       <c r="N32">
-        <v>0.5604819999999999</v>
+        <v>6.707732</v>
       </c>
       <c r="O32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="P32">
-        <v>0.01335295991620028</v>
+        <v>0.1066812824378608</v>
       </c>
       <c r="Q32">
-        <v>684.0266370628485</v>
+        <v>4751.459009003836</v>
       </c>
       <c r="R32">
-        <v>6156.239733565636</v>
+        <v>42763.13108103453</v>
       </c>
       <c r="S32">
-        <v>0.00751846852241374</v>
+        <v>0.07534983805925542</v>
       </c>
       <c r="T32">
-        <v>0.00751846852241374</v>
+        <v>0.07534983805925542</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.531156</v>
       </c>
       <c r="O33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="P33">
-        <v>0.3461912132843752</v>
+        <v>0.2311067820516108</v>
       </c>
       <c r="Q33">
-        <v>17734.19622988006</v>
+        <v>10293.22460817459</v>
       </c>
       <c r="R33">
-        <v>159607.7660689205</v>
+        <v>92639.02147357129</v>
       </c>
       <c r="S33">
-        <v>0.1949251518876317</v>
+        <v>0.1632325578025147</v>
       </c>
       <c r="T33">
-        <v>0.1949251518876317</v>
+        <v>0.1632325578025147</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.932387666666666</v>
+        <v>3.665225999999999</v>
       </c>
       <c r="N34">
-        <v>5.797162999999999</v>
+        <v>10.995678</v>
       </c>
       <c r="O34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280256</v>
       </c>
       <c r="P34">
-        <v>0.1381119914050395</v>
+        <v>0.1748777426280257</v>
       </c>
       <c r="Q34">
-        <v>7075.006711000841</v>
+        <v>7788.849240429593</v>
       </c>
       <c r="R34">
-        <v>63675.06039900758</v>
+        <v>70099.64316386633</v>
       </c>
       <c r="S34">
-        <v>0.07776483015476252</v>
+        <v>0.1235175401539175</v>
       </c>
       <c r="T34">
-        <v>0.07776483015476252</v>
+        <v>0.1235175401539175</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4503413333333333</v>
+        <v>2.309336666666667</v>
       </c>
       <c r="N35">
-        <v>1.351024</v>
+        <v>6.92801</v>
       </c>
       <c r="O35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="P35">
-        <v>0.03218688435636571</v>
+        <v>0.1101846334263688</v>
       </c>
       <c r="Q35">
-        <v>1648.824410616573</v>
+        <v>4907.49414689923</v>
       </c>
       <c r="R35">
-        <v>14839.41969554915</v>
+        <v>44167.44732209307</v>
       </c>
       <c r="S35">
-        <v>0.01812302878063078</v>
+        <v>0.07782428271924134</v>
       </c>
       <c r="T35">
-        <v>0.01812302878063078</v>
+        <v>0.07782428271924134</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.064756333333333</v>
+        <v>5.600827333333332</v>
       </c>
       <c r="N36">
-        <v>15.194269</v>
+        <v>16.802482</v>
       </c>
       <c r="O36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="P36">
-        <v>0.3619892608736132</v>
+        <v>0.2672304629790027</v>
       </c>
       <c r="Q36">
-        <v>18543.4763769368</v>
+        <v>11902.13092480808</v>
       </c>
       <c r="R36">
-        <v>166891.2873924312</v>
+        <v>107119.1783232728</v>
       </c>
       <c r="S36">
-        <v>0.2038203424866221</v>
+        <v>0.1887470008780247</v>
       </c>
       <c r="T36">
-        <v>0.2038203424866221</v>
+        <v>0.1887470008780247</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.513423333333333</v>
+        <v>2.303771333333333</v>
       </c>
       <c r="N37">
-        <v>4.54027</v>
+        <v>6.911314</v>
       </c>
       <c r="O37">
-        <v>0.108167690164406</v>
+        <v>0.1099190964771313</v>
       </c>
       <c r="P37">
-        <v>0.1081676901644061</v>
+        <v>0.1099190964771314</v>
       </c>
       <c r="Q37">
-        <v>5541.062191930051</v>
+        <v>4895.667443087222</v>
       </c>
       <c r="R37">
-        <v>49869.55972737046</v>
+        <v>44061.006987785</v>
       </c>
       <c r="S37">
-        <v>0.06090450197911695</v>
+        <v>0.07763673186058488</v>
       </c>
       <c r="T37">
-        <v>0.06090450197911696</v>
+        <v>0.0776367318605849</v>
       </c>
     </row>
   </sheetData>
